--- a/importLists/ImportUsersTemplate.xlsx
+++ b/importLists/ImportUsersTemplate.xlsx
@@ -336,15 +336,9 @@
     <t>Test Reason for End of Employment</t>
   </si>
   <si>
-    <t>Linda Doe</t>
-  </si>
-  <si>
     <t>Linda</t>
   </si>
   <si>
-    <t>Doe</t>
-  </si>
-  <si>
     <t>Marie</t>
   </si>
   <si>
@@ -507,9 +501,6 @@
     <t>lindadoe</t>
   </si>
   <si>
-    <t>lindadoe@yahoo.com</t>
-  </si>
-  <si>
     <t>Resident</t>
   </si>
   <si>
@@ -523,6 +514,15 @@
   </si>
   <si>
     <t>Mailbox2</t>
+  </si>
+  <si>
+    <t>Linda Doe Test</t>
+  </si>
+  <si>
+    <t>Doe Test</t>
+  </si>
+  <si>
+    <t>lindadoetest@yahoo.com</t>
   </si>
 </sst>
 </file>
@@ -993,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ET3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AB5" sqref="AB5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1228,7 +1228,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>4</v>
@@ -1270,7 +1270,7 @@
         <v>14</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>15</v>
@@ -1294,7 +1294,7 @@
         <v>27</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Y2" s="3" t="s">
         <v>24</v>
@@ -1306,10 +1306,10 @@
         <v>30</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>21</v>
@@ -1333,10 +1333,10 @@
         <v>31</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AM2" s="3" t="s">
         <v>21</v>
@@ -1357,10 +1357,10 @@
         <v>33</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AU2" s="3" t="s">
         <v>21</v>
@@ -1453,7 +1453,7 @@
         <v>54</v>
       </c>
       <c r="BY2" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="BZ2" s="3" t="s">
         <v>55</v>
@@ -1537,7 +1537,7 @@
         <v>54</v>
       </c>
       <c r="DA2" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="DB2" s="3" t="s">
         <v>55</v>
@@ -1561,10 +1561,10 @@
         <v>64</v>
       </c>
       <c r="DI2" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="DJ2" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="DK2" s="3" t="s">
         <v>65</v>
@@ -1582,10 +1582,10 @@
         <v>70</v>
       </c>
       <c r="DP2" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="DQ2" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="DR2" s="3" t="s">
         <v>71</v>
@@ -1621,13 +1621,13 @@
         <v>83</v>
       </c>
       <c r="EC2" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="ED2" s="2" t="s">
         <v>85</v>
       </c>
       <c r="EE2" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="EF2" s="4" t="s">
         <v>86</v>
@@ -1636,10 +1636,10 @@
         <v>87</v>
       </c>
       <c r="EH2" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="EI2" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="EJ2" s="2" t="s">
         <v>52</v>
@@ -1651,10 +1651,10 @@
         <v>89</v>
       </c>
       <c r="EM2" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="EN2" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="EO2" s="4" t="s">
         <v>90</v>
@@ -1666,13 +1666,13 @@
         <v>33</v>
       </c>
       <c r="ER2" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="ES2" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="ET2" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:150" s="5" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1680,34 +1680,34 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>111</v>
-      </c>
       <c r="I3" s="6" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="J3" s="5">
         <v>1234567</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>94</v>
@@ -1749,13 +1749,13 @@
         <v>42791</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Z3" s="5" t="s">
         <v>105</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AB3" s="7">
         <v>43153</v>
@@ -1776,13 +1776,13 @@
         <v>104</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AI3" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AJ3" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AK3" s="7">
         <v>42788</v>
@@ -1803,10 +1803,10 @@
         <v>104</v>
       </c>
       <c r="AQ3" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AR3" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AS3" s="7">
         <v>42788</v>
@@ -1827,13 +1827,13 @@
         <v>104</v>
       </c>
       <c r="AY3" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AZ3" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="BA3" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="BB3" s="5">
         <v>1234567</v>
@@ -1866,37 +1866,37 @@
         <v>104</v>
       </c>
       <c r="BL3" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="BM3" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="BN3" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="BM3" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="BN3" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="BO3" s="5">
         <v>5</v>
       </c>
       <c r="BP3" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="BQ3" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR3" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="BQ3" s="5" t="s">
+      <c r="BS3" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="BR3" s="5" t="s">
+      <c r="BT3" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="BS3" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="BT3" s="5" t="s">
-        <v>125</v>
       </c>
       <c r="BU3" s="5">
         <v>11209</v>
       </c>
       <c r="BV3" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="BW3" s="5">
         <v>111</v>
@@ -1911,13 +1911,13 @@
         <v>111</v>
       </c>
       <c r="CA3" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="CB3" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="CC3" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="CD3" s="5">
         <v>1234567</v>
@@ -1950,37 +1950,37 @@
         <v>104</v>
       </c>
       <c r="CN3" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="CO3" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="CP3" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="CQ3" s="5">
         <v>5</v>
       </c>
       <c r="CR3" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="CS3" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="CT3" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="CS3" s="5" t="s">
+      <c r="CU3" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="CT3" s="5" t="s">
+      <c r="CV3" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="CU3" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="CV3" s="5" t="s">
-        <v>125</v>
       </c>
       <c r="CW3" s="5">
         <v>11209</v>
       </c>
       <c r="CX3" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="CY3" s="5">
         <v>111</v>
@@ -1995,22 +1995,22 @@
         <v>111</v>
       </c>
       <c r="DC3" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="DD3" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="DE3" s="5" t="b">
         <v>1</v>
       </c>
       <c r="DF3" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="DG3" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="DH3" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="DG3" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="DH3" s="5" t="s">
-        <v>138</v>
       </c>
       <c r="DI3" s="7">
         <v>42083</v>
@@ -2019,19 +2019,19 @@
         <v>42450</v>
       </c>
       <c r="DK3" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="DL3" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="DM3" s="8" t="b">
         <v>1</v>
       </c>
       <c r="DN3" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="DO3" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="DP3" s="7">
         <v>42683</v>
@@ -2040,31 +2040,31 @@
         <v>42734</v>
       </c>
       <c r="DR3" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="DS3" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="DT3" s="5">
         <v>111</v>
       </c>
       <c r="DU3" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="DV3" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="DW3" s="7">
         <v>36606</v>
       </c>
       <c r="DX3" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="DY3" s="5">
         <v>1111111</v>
       </c>
       <c r="DZ3" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="EA3" s="5">
         <v>333</v>
@@ -2094,10 +2094,10 @@
         <v>43153</v>
       </c>
       <c r="EJ3" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="EK3" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="EL3" s="5">
         <v>123</v>
@@ -2109,13 +2109,13 @@
         <v>43153</v>
       </c>
       <c r="EO3" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="EP3" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="EQ3" s="5" t="s">
         <v>157</v>
-      </c>
-      <c r="EP3" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="EQ3" s="5" t="s">
-        <v>159</v>
       </c>
       <c r="ER3" s="7">
         <v>42422</v>
